--- a/summary.xlsx
+++ b/summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2256" yWindow="96" windowWidth="13992" windowHeight="8904"/>
+    <workbookView xWindow="3144" yWindow="96" windowWidth="13992" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="14" r:id="rId1"/>
@@ -30,9 +30,9 @@
   </sheets>
   <calcPr calcId="0" calcOnSave="0"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId16"/>
-    <pivotCache cacheId="39" r:id="rId17"/>
-    <pivotCache cacheId="47" r:id="rId18"/>
+    <pivotCache cacheId="0" r:id="rId16"/>
+    <pivotCache cacheId="1" r:id="rId17"/>
+    <pivotCache cacheId="2" r:id="rId18"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -18102,11 +18102,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="323378216"/>
-        <c:axId val="285705400"/>
+        <c:axId val="244365264"/>
+        <c:axId val="244451120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="323378216"/>
+        <c:axId val="244365264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18205,7 +18205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="285705400"/>
+        <c:crossAx val="244451120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18213,7 +18213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="285705400"/>
+        <c:axId val="244451120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18320,7 +18320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="323378216"/>
+        <c:crossAx val="244365264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18558,47 +18558,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="5"/>
@@ -18614,47 +18573,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -18839,11 +18757,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287853792"/>
-        <c:axId val="287858496"/>
+        <c:axId val="244243096"/>
+        <c:axId val="244970008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287853792"/>
+        <c:axId val="244243096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18942,7 +18860,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287858496"/>
+        <c:crossAx val="244970008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18950,7 +18868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287858496"/>
+        <c:axId val="244970008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19057,7 +18975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287853792"/>
+        <c:crossAx val="244243096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19462,11 +19380,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="287854576"/>
-        <c:axId val="287851048"/>
+        <c:axId val="245091080"/>
+        <c:axId val="245095560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="287854576"/>
+        <c:axId val="245091080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19572,7 +19490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287851048"/>
+        <c:crossAx val="245095560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19580,7 +19498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="287851048"/>
+        <c:axId val="245095560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19694,7 +19612,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="287854576"/>
+        <c:crossAx val="245091080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20106,11 +20024,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="417632488"/>
-        <c:axId val="417628960"/>
+        <c:axId val="245167176"/>
+        <c:axId val="243395016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417632488"/>
+        <c:axId val="245167176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20209,7 +20127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417628960"/>
+        <c:crossAx val="243395016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20217,7 +20135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417628960"/>
+        <c:axId val="243395016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20324,7 +20242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417632488"/>
+        <c:crossAx val="245167176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20435,7 +20353,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20570,7 +20487,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -20608,9 +20524,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -20649,7 +20563,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -20687,9 +20600,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -20947,7 +20858,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -20985,11 +20895,177 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -21153,9 +21229,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -21369,9 +21443,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -21450,7 +21522,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -24264,13 +24335,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>121920</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -25579,7 +25650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable17" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A32:C36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -25701,7 +25772,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="39" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable14" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A19:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -25796,7 +25867,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable12" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="15">
   <location ref="A4:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -26352,8 +26423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="M73" sqref="M73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -67867,7 +67938,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:L7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
